--- a/auca/Sem-3/Table/SelfFallmidSemExam.xlsx
+++ b/auca/Sem-3/Table/SelfFallmidSemExam.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>9:00am</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>C,D,F,H,J,K,L</t>
   </si>
@@ -53,18 +50,12 @@
     <t>A,B,E,I,G,F,L</t>
   </si>
   <si>
-    <t>1:00PM</t>
-  </si>
-  <si>
     <t>Multi.calculus and ODE</t>
   </si>
   <si>
     <t>All</t>
   </si>
   <si>
-    <t>6:00pm</t>
-  </si>
-  <si>
     <t>ICP</t>
   </si>
   <si>
@@ -72,6 +63,18 @@
   </si>
   <si>
     <t>FALL25-MIDSEM-EXAM</t>
+  </si>
+  <si>
+    <t>2pm</t>
+  </si>
+  <si>
+    <t>6pm</t>
+  </si>
+  <si>
+    <t>1pm</t>
+  </si>
+  <si>
+    <t>9am</t>
   </si>
 </sst>
 </file>
@@ -118,10 +121,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +408,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,31 +418,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -447,13 +450,13 @@
         <v>45951</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -461,13 +464,13 @@
         <v>45953</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -475,13 +478,13 @@
         <v>45954</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -489,13 +492,13 @@
         <v>45957</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
